--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\OneDrive\OneDrive - The University of Technology\Desktop\RESEARCH\PhD\DOCUMENTS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E42C05B-CD7D-4FAB-9DEE-32FF940930EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7319C01-B28F-479D-9D70-888F76F6BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1195,7 +1195,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1665,7 +1665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="563955775"/>
@@ -1727,7 +1727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="563970175"/>
@@ -1775,7 +1775,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2662,40 +2662,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" customWidth="1"/>
-    <col min="3" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="40.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="31.109375" customWidth="1"/>
-    <col min="16" max="16" width="30.109375" customWidth="1"/>
-    <col min="17" max="17" width="31.33203125" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" customWidth="1"/>
-    <col min="19" max="19" width="28.6640625" customWidth="1"/>
-    <col min="20" max="20" width="36.6640625" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" customWidth="1"/>
+    <col min="20" max="20" width="36.7109375" customWidth="1"/>
     <col min="21" max="21" width="57" customWidth="1"/>
     <col min="22" max="22" width="36" customWidth="1"/>
-    <col min="23" max="23" width="32.88671875" customWidth="1"/>
-    <col min="24" max="24" width="24.88671875" customWidth="1"/>
+    <col min="23" max="23" width="32.85546875" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" customWidth="1"/>
     <col min="25" max="25" width="34" customWidth="1"/>
-    <col min="26" max="26" width="18.5546875" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>219.82483531999998</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>228.98420345833333</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>261.6962325238095</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>686.95261037499995</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>785.0886975714285</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>915.9368138333333</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>1831.8736276666666</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1831.8736276666666</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>1831.8736276666666</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1831.8736276666666</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>2747.8104414999998</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>2747.8104414999998</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>124</v>
       </c>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>41</v>
       </c>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>41</v>
       </c>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>41</v>
       </c>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>56</v>
       </c>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>41</v>
       </c>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>41</v>
       </c>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>179</v>
       </c>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>46</v>
       </c>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>41</v>
       </c>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>46</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>46</v>
       </c>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>41</v>
       </c>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>46</v>
       </c>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>56</v>
       </c>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>195</v>
       </c>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>56</v>
       </c>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>29</v>
       </c>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>46</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>46</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>46</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>41</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>41</v>
       </c>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>46</v>
       </c>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>41</v>
       </c>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>41</v>
       </c>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>243</v>
       </c>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>46</v>
       </c>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O124" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>249</v>
       </c>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7319C01-B28F-479D-9D70-888F76F6BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA0AF4C-68F2-46E1-B811-05E72139B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1195,7 +1195,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1665,7 +1665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="563955775"/>
@@ -1727,7 +1727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="563970175"/>
@@ -1775,7 +1775,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2662,40 +2662,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="T4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" customWidth="1"/>
+    <col min="3" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="40.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" customWidth="1"/>
-    <col min="16" max="16" width="30.140625" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" customWidth="1"/>
-    <col min="18" max="18" width="24.28515625" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" customWidth="1"/>
-    <col min="20" max="20" width="36.7109375" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" customWidth="1"/>
+    <col min="16" max="16" width="30.109375" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="28.6640625" customWidth="1"/>
+    <col min="20" max="20" width="36.6640625" customWidth="1"/>
     <col min="21" max="21" width="57" customWidth="1"/>
     <col min="22" max="22" width="36" customWidth="1"/>
-    <col min="23" max="23" width="32.85546875" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" customWidth="1"/>
+    <col min="23" max="23" width="32.88671875" customWidth="1"/>
+    <col min="24" max="24" width="24.88671875" customWidth="1"/>
     <col min="25" max="25" width="34" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>219.82483531999998</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>228.98420345833333</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>261.6962325238095</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>686.95261037499995</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>785.0886975714285</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>915.9368138333333</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>1831.8736276666666</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1831.8736276666666</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>1831.8736276666666</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1831.8736276666666</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>2747.8104414999998</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>2747.8104414999998</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>5495.6208829999996</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>124</v>
       </c>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>41</v>
       </c>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>41</v>
       </c>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>41</v>
       </c>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>56</v>
       </c>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>41</v>
       </c>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>41</v>
       </c>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>179</v>
       </c>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>46</v>
       </c>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>41</v>
       </c>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>46</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>46</v>
       </c>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>41</v>
       </c>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>46</v>
       </c>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>56</v>
       </c>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>195</v>
       </c>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>56</v>
       </c>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>29</v>
       </c>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>46</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>46</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>46</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>41</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>41</v>
       </c>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>46</v>
       </c>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>41</v>
       </c>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>41</v>
       </c>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>243</v>
       </c>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>46</v>
       </c>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O124" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>249</v>
       </c>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA0AF4C-68F2-46E1-B811-05E72139B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EAD6D-ADA0-4D3F-B698-03D758A24A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="265">
   <si>
     <t>Libellé parc</t>
   </si>
@@ -971,10 +971,6 @@
   <si>
     <t>Frequency of fault (faults per day)
 (Number of faults happened / Time horizon)</t>
-  </si>
-  <si>
-    <t>MTBF
-(Operatiomal time / Number of faults happened)</t>
   </si>
   <si>
     <t>Fault Classification</t>
@@ -1036,7 +1032,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,14 +1063,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1086,6 +1076,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1131,13 +1134,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2660,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z130"/>
+  <dimension ref="A1:AA130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2695,18 +2696,18 @@
     <col min="26" max="26" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -2739,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U1" s="9" t="s">
         <v>250</v>
@@ -2756,11 +2757,9 @@
       <c r="Y1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>0.37062694440828636</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>29</v>
@@ -2821,11 +2820,9 @@
       <c r="Y2" s="1">
         <v>27.694433334516361</v>
       </c>
-      <c r="Z2" s="14">
-        <v>219.82483531999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z2" s="15"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2869,7 +2866,7 @@
         <v>1.0530813887016848</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>46</v>
@@ -2886,11 +2883,9 @@
       <c r="Y3" s="1">
         <v>92.383807500998955</v>
       </c>
-      <c r="Z3" s="14">
-        <v>228.98420345833333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z3" s="15"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2934,7 +2929,7 @@
         <v>0.77463250007713214</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>41</v>
@@ -2951,11 +2946,9 @@
       <c r="Y4" s="1">
         <v>15.242442222603131</v>
       </c>
-      <c r="Z4" s="14">
-        <v>261.6962325238095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2999,7 +2992,7 @@
         <v>1.0268130557960831</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>56</v>
@@ -3016,11 +3009,9 @@
       <c r="Y5" s="1">
         <v>15.401251111237798</v>
       </c>
-      <c r="Z5" s="14">
-        <v>686.95261037499995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3064,7 +3055,7 @@
         <v>2.2543277777731419</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>21</v>
@@ -3081,11 +3072,9 @@
       <c r="Y6" s="1">
         <v>3.444193611619994</v>
       </c>
-      <c r="Z6" s="14">
-        <v>785.0886975714285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3129,7 +3118,7 @@
         <v>1.4365713889128529</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>11</v>
@@ -3146,11 +3135,9 @@
       <c r="Y7" s="1">
         <v>5.3387313883868046</v>
       </c>
-      <c r="Z7" s="14">
-        <v>915.9368138333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3194,7 +3181,7 @@
         <v>1.2310027778148651</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>50</v>
@@ -3211,11 +3198,9 @@
       <c r="Y8" s="1">
         <v>5.1913555552018806</v>
       </c>
-      <c r="Z8" s="14">
-        <v>1831.8736276666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3259,7 +3244,7 @@
         <v>2.6317769445595331</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>38</v>
@@ -3276,11 +3261,9 @@
       <c r="Y9" s="1">
         <v>3.2458094440517016</v>
       </c>
-      <c r="Z9" s="14">
-        <v>1831.8736276666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3324,7 +3307,7 @@
         <v>0.23537305538775399</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>133</v>
@@ -3341,11 +3324,10 @@
       <c r="Y10" s="1">
         <v>2.4456713885301724</v>
       </c>
-      <c r="Z10" s="14">
-        <v>1831.8736276666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="14"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -3389,7 +3371,7 @@
         <v>2.1397352778003551</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>195</v>
@@ -3406,11 +3388,9 @@
       <c r="Y11" s="1">
         <v>2.1275150001165457</v>
       </c>
-      <c r="Z11" s="14">
-        <v>1831.8736276666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3454,7 +3434,7 @@
         <v>0.14853527775267139</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>24</v>
@@ -3471,11 +3451,9 @@
       <c r="Y12" s="1">
         <v>27.927750000322703</v>
       </c>
-      <c r="Z12" s="14">
-        <v>2747.8104414999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3519,7 +3497,7 @@
         <v>0.23128972220001742</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>80</v>
@@ -3536,11 +3514,9 @@
       <c r="Y13" s="1">
         <v>0.95490194420563057</v>
       </c>
-      <c r="Z13" s="14">
-        <v>2747.8104414999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -3584,7 +3560,7 @@
         <v>10.517624166794121</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>75</v>
@@ -3601,11 +3577,9 @@
       <c r="Y14" s="1">
         <v>21.962745277793147</v>
       </c>
-      <c r="Z14" s="14">
-        <v>5495.6208829999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3649,7 +3623,7 @@
         <v>0.41770749975694343</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>70</v>
@@ -3666,11 +3640,9 @@
       <c r="Y15" s="1">
         <v>4.4989916666527279</v>
       </c>
-      <c r="Z15" s="14">
-        <v>5495.6208829999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3714,7 +3686,7 @@
         <v>2.6815547219594009</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>124</v>
@@ -3731,9 +3703,7 @@
       <c r="Y16" s="1">
         <v>3.3067130553536117</v>
       </c>
-      <c r="Z16" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -3779,7 +3749,7 @@
         <v>25.673422222549561</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>34</v>
@@ -3796,9 +3766,7 @@
       <c r="Y17" s="1">
         <v>2.6317769445595331</v>
       </c>
-      <c r="Z17" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -3844,7 +3812,7 @@
         <v>0.68836666649440303</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>90</v>
@@ -3861,9 +3829,7 @@
       <c r="Y18" s="1">
         <v>2.2633008333505131</v>
       </c>
-      <c r="Z18" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -3909,7 +3875,7 @@
         <v>1.5428908334579319</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>85</v>
@@ -3926,9 +3892,7 @@
       <c r="Y19" s="1">
         <v>2.14952972199535</v>
       </c>
-      <c r="Z19" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -3974,7 +3938,7 @@
         <v>1.2898119442979805</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>168</v>
@@ -3991,9 +3955,7 @@
       <c r="Y20" s="1">
         <v>2.0239841667353176</v>
       </c>
-      <c r="Z20" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -4039,7 +4001,7 @@
         <v>0.57157500012544915</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>68</v>
@@ -4056,9 +4018,7 @@
       <c r="Y21" s="1">
         <v>2.021517499932088</v>
       </c>
-      <c r="Z21" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -4104,7 +4064,7 @@
         <v>1.8020666665979661</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>32</v>
@@ -4121,9 +4081,7 @@
       <c r="Y22" s="1">
         <v>1.2310027778148651</v>
       </c>
-      <c r="Z22" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -4169,7 +4127,7 @@
         <v>0.57709527789847925</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>105</v>
@@ -4186,9 +4144,7 @@
       <c r="Y23" s="1">
         <v>1.1092583333957009</v>
       </c>
-      <c r="Z23" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -4234,7 +4190,7 @@
         <v>2.021517499932088</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>16</v>
@@ -4251,9 +4207,7 @@
       <c r="Y24" s="1">
         <v>1.0530813887016848</v>
       </c>
-      <c r="Z24" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -4299,7 +4253,7 @@
         <v>4.4989916666527279</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>179</v>
@@ -4316,9 +4270,7 @@
       <c r="Y25" s="1">
         <v>0.97076027747243643</v>
       </c>
-      <c r="Z25" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -4364,7 +4316,7 @@
         <v>2.0962361113051884</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>19</v>
@@ -4381,9 +4333,7 @@
       <c r="Y26" s="1">
         <v>0.77463250007713214</v>
       </c>
-      <c r="Z26" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -4429,7 +4379,7 @@
         <v>1.4826777776470408</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>243</v>
@@ -4446,9 +4396,7 @@
       <c r="Y27" s="1">
         <v>0.63928805576870218</v>
       </c>
-      <c r="Z27" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -4494,7 +4442,7 @@
         <v>21.962745277793147</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>61</v>
@@ -4511,9 +4459,7 @@
       <c r="Y28" s="1">
         <v>0.57157500012544915</v>
       </c>
-      <c r="Z28" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -4559,7 +4505,7 @@
         <v>0.70773416664451361</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>12</v>
@@ -4576,9 +4522,7 @@
       <c r="Y29" s="1">
         <v>0.37062694440828636</v>
       </c>
-      <c r="Z29" s="14">
-        <v>5495.6208829999996</v>
-      </c>
+      <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -4624,7 +4568,7 @@
         <v>0.22911861108150333</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -4671,7 +4615,7 @@
         <v>0.76623805530834943</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -4718,7 +4662,7 @@
         <v>0.43805555580183864</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -4765,7 +4709,7 @@
         <v>2.14952972199535</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -4812,7 +4756,7 @@
         <v>0.13691388897132128</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -4859,7 +4803,7 @@
         <v>2.2633008333505131</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -8884,7 +8828,8 @@
   </sheetData>
   <autoFilter ref="A1:O124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EAD6D-ADA0-4D3F-B698-03D758A24A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD1808D-9A40-4EC3-AA62-D65315F8B8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1950" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>tc={48039638-2E7E-4F3B-9FCF-6458DED7C64E}</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{48039638-2E7E-4F3B-9FCF-6458DED7C64E}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{48039638-2E7E-4F3B-9FCF-6458DED7C64E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="264">
   <si>
     <t>Libellé parc</t>
   </si>
@@ -967,10 +967,6 @@
   <si>
     <t>5495.620883
 (hour)</t>
-  </si>
-  <si>
-    <t>Frequency of fault (faults per day)
-(Number of faults happened / Time horizon)</t>
   </si>
   <si>
     <t>Fault Classification</t>
@@ -1064,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1087,24 +1083,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1128,17 +1111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,7 +1174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1666,7 +1644,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="563955775"/>
@@ -1728,7 +1706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="563970175"/>
@@ -1776,7 +1754,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2653,7 +2631,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z1" dT="2024-04-08T08:26:24.43" personId="{E18A33D1-C391-4BDA-869E-FF4D4FE8A2DC}" id="{48039638-2E7E-4F3B-9FCF-6458DED7C64E}">
+  <threadedComment ref="Y1" dT="2024-04-08T08:26:24.43" personId="{E18A33D1-C391-4BDA-869E-FF4D4FE8A2DC}" id="{48039638-2E7E-4F3B-9FCF-6458DED7C64E}">
     <text>Calculated by myseft, dont know if it is correct</text>
   </threadedComment>
 </ThreadedComments>
@@ -2661,53 +2639,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA130"/>
+  <dimension ref="A1:Y130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" customWidth="1"/>
-    <col min="3" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="40.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="31.109375" customWidth="1"/>
-    <col min="16" max="16" width="30.109375" customWidth="1"/>
-    <col min="17" max="17" width="31.33203125" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" customWidth="1"/>
-    <col min="19" max="19" width="28.6640625" customWidth="1"/>
-    <col min="20" max="20" width="36.6640625" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" customWidth="1"/>
+    <col min="20" max="20" width="36.7109375" customWidth="1"/>
     <col min="21" max="21" width="57" customWidth="1"/>
     <col min="22" max="22" width="36" customWidth="1"/>
-    <col min="23" max="23" width="32.88671875" customWidth="1"/>
-    <col min="24" max="24" width="24.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34" customWidth="1"/>
-    <col min="26" max="26" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" customWidth="1"/>
+    <col min="24" max="24" width="34" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>264</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -2740,7 +2717,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U1" s="9" t="s">
         <v>250</v>
@@ -2748,18 +2725,14 @@
       <c r="V1" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>256</v>
+      <c r="W1" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" s="15"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2803,7 +2776,7 @@
         <v>0.37062694440828636</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>29</v>
@@ -2811,18 +2784,14 @@
       <c r="V2" s="10">
         <v>25</v>
       </c>
-      <c r="W2" s="10">
-        <v>0.10917783682204572</v>
+      <c r="W2" s="1">
+        <v>84.430120278324466</v>
       </c>
       <c r="X2" s="1">
-        <v>84.430120278324466</v>
-      </c>
-      <c r="Y2" s="1">
         <v>27.694433334516361</v>
       </c>
-      <c r="Z2" s="15"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2866,7 +2835,7 @@
         <v>1.0530813887016848</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>46</v>
@@ -2874,18 +2843,14 @@
       <c r="V3" s="10">
         <v>24</v>
       </c>
-      <c r="W3" s="10">
-        <v>0.1048107233491639</v>
+      <c r="W3" s="1">
+        <v>113.65410583501216</v>
       </c>
       <c r="X3" s="1">
-        <v>113.65410583501216</v>
-      </c>
-      <c r="Y3" s="1">
         <v>92.383807500998955</v>
       </c>
-      <c r="Z3" s="15"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2929,7 +2894,7 @@
         <v>0.77463250007713214</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>41</v>
@@ -2937,18 +2902,14 @@
       <c r="V4" s="10">
         <v>21</v>
       </c>
-      <c r="W4" s="10">
-        <v>9.1709382930518404E-2</v>
+      <c r="W4" s="1">
+        <v>18.238719167013187</v>
       </c>
       <c r="X4" s="1">
-        <v>18.238719167013187</v>
-      </c>
-      <c r="Y4" s="1">
         <v>15.242442222603131</v>
       </c>
-      <c r="Z4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2992,7 +2953,7 @@
         <v>1.0268130557960831</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>56</v>
@@ -3000,18 +2961,14 @@
       <c r="V5" s="10">
         <v>8</v>
       </c>
-      <c r="W5" s="10">
-        <v>3.4936907783054631E-2</v>
+      <c r="W5" s="1">
+        <v>16.432549166784156</v>
       </c>
       <c r="X5" s="1">
-        <v>16.432549166784156</v>
-      </c>
-      <c r="Y5" s="1">
         <v>15.401251111237798</v>
       </c>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3055,7 +3012,7 @@
         <v>2.2543277777731419</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>21</v>
@@ -3063,18 +3020,14 @@
       <c r="V6" s="10">
         <v>7</v>
       </c>
-      <c r="W6" s="10">
-        <v>3.0569794310172801E-2</v>
+      <c r="W6" s="1">
+        <v>5.5412888896535151</v>
       </c>
       <c r="X6" s="1">
-        <v>5.5412888896535151</v>
-      </c>
-      <c r="Y6" s="1">
         <v>3.444193611619994</v>
       </c>
-      <c r="Z6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3118,7 +3071,7 @@
         <v>1.4365713889128529</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>11</v>
@@ -3126,18 +3079,14 @@
       <c r="V7" s="10">
         <v>6</v>
       </c>
-      <c r="W7" s="10">
-        <v>2.6202680837290975E-2</v>
+      <c r="W7" s="1">
+        <v>7.5252055549062788</v>
       </c>
       <c r="X7" s="1">
-        <v>7.5252055549062788</v>
-      </c>
-      <c r="Y7" s="1">
         <v>5.3387313883868046</v>
       </c>
-      <c r="Z7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3181,7 +3130,7 @@
         <v>1.2310027778148651</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>50</v>
@@ -3189,18 +3138,14 @@
       <c r="V8" s="10">
         <v>3</v>
       </c>
-      <c r="W8" s="10">
-        <v>1.3101340418645488E-2</v>
+      <c r="W8" s="1">
+        <v>5.3482074999483302</v>
       </c>
       <c r="X8" s="1">
-        <v>5.3482074999483302</v>
-      </c>
-      <c r="Y8" s="1">
         <v>5.1913555552018806</v>
       </c>
-      <c r="Z8" s="15"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3244,7 +3189,7 @@
         <v>2.6317769445595331</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>38</v>
@@ -3252,18 +3197,14 @@
       <c r="V9" s="10">
         <v>3</v>
       </c>
-      <c r="W9" s="10">
-        <v>1.3101340418645488E-2</v>
+      <c r="W9" s="1">
+        <v>6.8441919438773766</v>
       </c>
       <c r="X9" s="1">
-        <v>6.8441919438773766</v>
-      </c>
-      <c r="Y9" s="1">
         <v>3.2458094440517016</v>
       </c>
-      <c r="Z9" s="15"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3307,7 +3248,7 @@
         <v>0.23537305538775399</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>133</v>
@@ -3315,19 +3256,14 @@
       <c r="V10" s="10">
         <v>3</v>
       </c>
-      <c r="W10" s="10">
-        <v>1.3101340418645488E-2</v>
+      <c r="W10" s="1">
+        <v>2.7071705551352352</v>
       </c>
       <c r="X10" s="1">
-        <v>2.7071705551352352</v>
-      </c>
-      <c r="Y10" s="1">
         <v>2.4456713885301724</v>
       </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="14"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -3371,7 +3307,7 @@
         <v>2.1397352778003551</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>195</v>
@@ -3379,18 +3315,14 @@
       <c r="V11" s="10">
         <v>3</v>
       </c>
-      <c r="W11" s="10">
-        <v>1.3101340418645488E-2</v>
+      <c r="W11" s="1">
+        <v>2.2144361111568287</v>
       </c>
       <c r="X11" s="1">
-        <v>2.2144361111568287</v>
-      </c>
-      <c r="Y11" s="1">
         <v>2.1275150001165457</v>
       </c>
-      <c r="Z11" s="15"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3434,7 +3366,7 @@
         <v>0.14853527775267139</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>24</v>
@@ -3442,18 +3374,14 @@
       <c r="V12" s="10">
         <v>2</v>
       </c>
-      <c r="W12" s="10">
-        <v>8.7342269457636578E-3</v>
+      <c r="W12" s="1">
+        <v>34.72747138881823</v>
       </c>
       <c r="X12" s="1">
-        <v>34.72747138881823</v>
-      </c>
-      <c r="Y12" s="1">
         <v>27.927750000322703</v>
       </c>
-      <c r="Z12" s="15"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3497,7 +3425,7 @@
         <v>0.23128972220001742</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>80</v>
@@ -3505,18 +3433,14 @@
       <c r="V13" s="10">
         <v>2</v>
       </c>
-      <c r="W13" s="10">
-        <v>8.7342269457636578E-3</v>
+      <c r="W13" s="1">
+        <v>1.0138841666048393</v>
       </c>
       <c r="X13" s="1">
-        <v>1.0138841666048393</v>
-      </c>
-      <c r="Y13" s="1">
         <v>0.95490194420563057</v>
       </c>
-      <c r="Z13" s="15"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -3560,7 +3484,7 @@
         <v>10.517624166794121</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>75</v>
@@ -3568,18 +3492,14 @@
       <c r="V14" s="10">
         <v>1</v>
       </c>
-      <c r="W14" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W14" s="1">
+        <v>22.245168333349284</v>
       </c>
       <c r="X14" s="1">
-        <v>22.245168333349284</v>
-      </c>
-      <c r="Y14" s="1">
         <v>21.962745277793147</v>
       </c>
-      <c r="Z14" s="15"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3623,7 +3543,7 @@
         <v>0.41770749975694343</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>70</v>
@@ -3631,18 +3551,14 @@
       <c r="V15" s="10">
         <v>1</v>
       </c>
-      <c r="W15" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W15" s="1">
+        <v>4.7644963888451457</v>
       </c>
       <c r="X15" s="1">
-        <v>4.7644963888451457</v>
-      </c>
-      <c r="Y15" s="1">
         <v>4.4989916666527279</v>
       </c>
-      <c r="Z15" s="15"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3686,7 +3602,7 @@
         <v>2.6815547219594009</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>124</v>
@@ -3694,18 +3610,14 @@
       <c r="V16" s="10">
         <v>1</v>
       </c>
-      <c r="W16" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W16" s="1">
+        <v>3.3729750001220964</v>
       </c>
       <c r="X16" s="1">
-        <v>3.3729750001220964</v>
-      </c>
-      <c r="Y16" s="1">
         <v>3.3067130553536117</v>
       </c>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -3749,7 +3661,7 @@
         <v>25.673422222549561</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>34</v>
@@ -3757,18 +3669,14 @@
       <c r="V17" s="10">
         <v>1</v>
       </c>
-      <c r="W17" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W17" s="1">
+        <v>3.7125547222676687</v>
       </c>
       <c r="X17" s="1">
-        <v>3.7125547222676687</v>
-      </c>
-      <c r="Y17" s="1">
         <v>2.6317769445595331</v>
       </c>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -3812,7 +3720,7 @@
         <v>0.68836666649440303</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>90</v>
@@ -3820,18 +3728,14 @@
       <c r="V18" s="10">
         <v>1</v>
       </c>
-      <c r="W18" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W18" s="1">
+        <v>2.4936211110907607</v>
       </c>
       <c r="X18" s="1">
-        <v>2.4936211110907607</v>
-      </c>
-      <c r="Y18" s="1">
         <v>2.2633008333505131</v>
       </c>
-      <c r="Z18" s="15"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -3875,7 +3779,7 @@
         <v>1.5428908334579319</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>85</v>
@@ -3883,18 +3787,14 @@
       <c r="V19" s="10">
         <v>1</v>
       </c>
-      <c r="W19" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W19" s="1">
+        <v>2.2659075002884492</v>
       </c>
       <c r="X19" s="1">
-        <v>2.2659075002884492</v>
-      </c>
-      <c r="Y19" s="1">
         <v>2.14952972199535</v>
       </c>
-      <c r="Z19" s="15"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3938,7 +3838,7 @@
         <v>1.2898119442979805</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>168</v>
@@ -3946,18 +3846,14 @@
       <c r="V20" s="10">
         <v>1</v>
       </c>
-      <c r="W20" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W20" s="1">
+        <v>3.9131091667804867</v>
       </c>
       <c r="X20" s="1">
-        <v>3.9131091667804867</v>
-      </c>
-      <c r="Y20" s="1">
         <v>2.0239841667353176</v>
       </c>
-      <c r="Z20" s="15"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,7 +3897,7 @@
         <v>0.57157500012544915</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>68</v>
@@ -4009,18 +3905,14 @@
       <c r="V21" s="10">
         <v>1</v>
       </c>
-      <c r="W21" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W21" s="1">
+        <v>2.6799591664457694</v>
       </c>
       <c r="X21" s="1">
-        <v>2.6799591664457694</v>
-      </c>
-      <c r="Y21" s="1">
         <v>2.021517499932088</v>
       </c>
-      <c r="Z21" s="15"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -4064,7 +3956,7 @@
         <v>1.8020666665979661</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>32</v>
@@ -4072,18 +3964,14 @@
       <c r="V22" s="10">
         <v>1</v>
       </c>
-      <c r="W22" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W22" s="1">
+        <v>1.3464972224319354</v>
       </c>
       <c r="X22" s="1">
-        <v>1.3464972224319354</v>
-      </c>
-      <c r="Y22" s="1">
         <v>1.2310027778148651</v>
       </c>
-      <c r="Z22" s="15"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -4127,7 +4015,7 @@
         <v>0.57709527789847925</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>105</v>
@@ -4135,18 +4023,14 @@
       <c r="V23" s="10">
         <v>1</v>
       </c>
-      <c r="W23" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W23" s="1">
+        <v>1.1306805556523614</v>
       </c>
       <c r="X23" s="1">
-        <v>1.1306805556523614</v>
-      </c>
-      <c r="Y23" s="1">
         <v>1.1092583333957009</v>
       </c>
-      <c r="Z23" s="15"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -4190,7 +4074,7 @@
         <v>2.021517499932088</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>16</v>
@@ -4198,18 +4082,14 @@
       <c r="V24" s="10">
         <v>1</v>
       </c>
-      <c r="W24" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W24" s="1">
+        <v>1.2140786109957844</v>
       </c>
       <c r="X24" s="1">
-        <v>1.2140786109957844</v>
-      </c>
-      <c r="Y24" s="1">
         <v>1.0530813887016848</v>
       </c>
-      <c r="Z24" s="15"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -4253,7 +4133,7 @@
         <v>4.4989916666527279</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>179</v>
@@ -4261,18 +4141,14 @@
       <c r="V25" s="10">
         <v>1</v>
       </c>
-      <c r="W25" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W25" s="1">
+        <v>1.0043861108715646</v>
       </c>
       <c r="X25" s="1">
-        <v>1.0043861108715646</v>
-      </c>
-      <c r="Y25" s="1">
         <v>0.97076027747243643</v>
       </c>
-      <c r="Z25" s="15"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -4316,7 +4192,7 @@
         <v>2.0962361113051884</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>19</v>
@@ -4324,18 +4200,14 @@
       <c r="V26" s="10">
         <v>1</v>
       </c>
-      <c r="W26" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W26" s="1">
+        <v>1.137699999846518</v>
       </c>
       <c r="X26" s="1">
-        <v>1.137699999846518</v>
-      </c>
-      <c r="Y26" s="1">
         <v>0.77463250007713214</v>
       </c>
-      <c r="Z26" s="15"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4379,7 +4251,7 @@
         <v>1.4826777776470408</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>243</v>
@@ -4387,18 +4259,14 @@
       <c r="V27" s="10">
         <v>1</v>
       </c>
-      <c r="W27" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W27" s="1">
+        <v>1.0548963889013976</v>
       </c>
       <c r="X27" s="1">
-        <v>1.0548963889013976</v>
-      </c>
-      <c r="Y27" s="1">
         <v>0.63928805576870218</v>
       </c>
-      <c r="Z27" s="15"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -4442,7 +4310,7 @@
         <v>21.962745277793147</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>61</v>
@@ -4450,18 +4318,14 @@
       <c r="V28" s="10">
         <v>1</v>
       </c>
-      <c r="W28" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W28" s="1">
+        <v>0.62068888870999217</v>
       </c>
       <c r="X28" s="1">
-        <v>0.62068888870999217</v>
-      </c>
-      <c r="Y28" s="1">
         <v>0.57157500012544915</v>
       </c>
-      <c r="Z28" s="15"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -4505,7 +4369,7 @@
         <v>0.70773416664451361</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>12</v>
@@ -4513,18 +4377,14 @@
       <c r="V29" s="10">
         <v>1</v>
       </c>
-      <c r="W29" s="10">
-        <v>4.3671134728818289E-3</v>
+      <c r="W29" s="1">
+        <v>0.50805750000290573</v>
       </c>
       <c r="X29" s="1">
-        <v>0.50805750000290573</v>
-      </c>
-      <c r="Y29" s="1">
         <v>0.37062694440828636</v>
       </c>
-      <c r="Z29" s="15"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -4568,10 +4428,10 @@
         <v>0.22911861108150333</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4615,10 +4475,10 @@
         <v>0.76623805530834943</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -4662,10 +4522,10 @@
         <v>0.43805555580183864</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -4709,10 +4569,10 @@
         <v>2.14952972199535</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -4756,10 +4616,10 @@
         <v>0.13691388897132128</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -4803,10 +4663,10 @@
         <v>2.2633008333505131</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,7 +4711,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -4896,7 +4756,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -4941,7 +4801,7 @@
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -4986,7 +4846,7 @@
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -5031,7 +4891,7 @@
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -5076,7 +4936,7 @@
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -5121,7 +4981,7 @@
       </c>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -5166,7 +5026,7 @@
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -5211,7 +5071,7 @@
       </c>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -5256,7 +5116,7 @@
       </c>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -5301,7 +5161,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -5346,7 +5206,7 @@
       </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -5391,7 +5251,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -5436,7 +5296,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -5481,7 +5341,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -5526,7 +5386,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -5571,7 +5431,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>124</v>
       </c>
@@ -5616,7 +5476,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -5661,7 +5521,7 @@
       </c>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -5706,7 +5566,7 @@
       </c>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -5751,7 +5611,7 @@
       </c>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -5796,7 +5656,7 @@
       </c>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -5841,7 +5701,7 @@
       </c>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -5886,7 +5746,7 @@
       </c>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -5931,7 +5791,7 @@
       </c>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -5976,7 +5836,7 @@
       </c>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -6021,7 +5881,7 @@
       </c>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
@@ -6066,7 +5926,7 @@
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -6111,7 +5971,7 @@
       </c>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -6156,7 +6016,7 @@
       </c>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
@@ -6201,7 +6061,7 @@
       </c>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>41</v>
       </c>
@@ -6246,7 +6106,7 @@
       </c>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -6291,7 +6151,7 @@
       </c>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -6336,7 +6196,7 @@
       </c>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>41</v>
       </c>
@@ -6381,7 +6241,7 @@
       </c>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>41</v>
       </c>
@@ -6426,7 +6286,7 @@
       </c>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
@@ -6471,7 +6331,7 @@
       </c>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
@@ -6516,7 +6376,7 @@
       </c>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
@@ -6561,7 +6421,7 @@
       </c>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
@@ -6606,7 +6466,7 @@
       </c>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>56</v>
       </c>
@@ -6651,7 +6511,7 @@
       </c>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
@@ -6696,7 +6556,7 @@
       </c>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
@@ -6741,7 +6601,7 @@
       </c>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -6786,7 +6646,7 @@
       </c>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>41</v>
       </c>
@@ -6831,7 +6691,7 @@
       </c>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -6876,7 +6736,7 @@
       </c>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
@@ -6921,7 +6781,7 @@
       </c>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>41</v>
       </c>
@@ -6966,7 +6826,7 @@
       </c>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>179</v>
       </c>
@@ -7011,7 +6871,7 @@
       </c>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
@@ -7056,7 +6916,7 @@
       </c>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -7101,7 +6961,7 @@
       </c>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -7146,7 +7006,7 @@
       </c>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>46</v>
       </c>
@@ -7191,7 +7051,7 @@
       </c>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -7236,7 +7096,7 @@
       </c>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -7281,7 +7141,7 @@
       </c>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
@@ -7326,7 +7186,7 @@
       </c>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -7371,7 +7231,7 @@
       </c>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -7416,7 +7276,7 @@
       </c>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>41</v>
       </c>
@@ -7461,7 +7321,7 @@
       </c>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>46</v>
       </c>
@@ -7506,7 +7366,7 @@
       </c>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -7551,7 +7411,7 @@
       </c>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
@@ -7596,7 +7456,7 @@
       </c>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>46</v>
       </c>
@@ -7641,7 +7501,7 @@
       </c>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>41</v>
       </c>
@@ -7686,7 +7546,7 @@
       </c>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -7731,7 +7591,7 @@
       </c>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -7776,7 +7636,7 @@
       </c>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>46</v>
       </c>
@@ -7821,7 +7681,7 @@
       </c>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>56</v>
       </c>
@@ -7866,7 +7726,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>195</v>
       </c>
@@ -7911,7 +7771,7 @@
       </c>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>56</v>
       </c>
@@ -7956,7 +7816,7 @@
       </c>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>29</v>
       </c>
@@ -8001,7 +7861,7 @@
       </c>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -8046,7 +7906,7 @@
       </c>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>46</v>
       </c>
@@ -8091,7 +7951,7 @@
       </c>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>46</v>
       </c>
@@ -8136,7 +7996,7 @@
       </c>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>46</v>
       </c>
@@ -8181,7 +8041,7 @@
       </c>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -8226,7 +8086,7 @@
       </c>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>41</v>
       </c>
@@ -8271,7 +8131,7 @@
       </c>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -8316,7 +8176,7 @@
       </c>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>41</v>
       </c>
@@ -8361,7 +8221,7 @@
       </c>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>46</v>
       </c>
@@ -8406,7 +8266,7 @@
       </c>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>41</v>
       </c>
@@ -8451,7 +8311,7 @@
       </c>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>41</v>
       </c>
@@ -8496,7 +8356,7 @@
       </c>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -8541,7 +8401,7 @@
       </c>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -8586,7 +8446,7 @@
       </c>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
@@ -8631,7 +8491,7 @@
       </c>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -8676,7 +8536,7 @@
       </c>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>243</v>
       </c>
@@ -8721,7 +8581,7 @@
       </c>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>46</v>
       </c>
@@ -8766,7 +8626,7 @@
       </c>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
@@ -8811,17 +8671,17 @@
       </c>
       <c r="O124" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>249</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F130" s="12" t="s">
+      <c r="F130" s="11" t="s">
         <v>254</v>
       </c>
     </row>
